--- a/Code/Results/Cases/Case_4_201/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_201/res_line/pl_mw.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>4.764895771557121</v>
+        <v>5.261984186751761</v>
       </c>
       <c r="C2">
-        <v>1.341725227643849</v>
+        <v>0.9858216608980683</v>
       </c>
       <c r="D2">
-        <v>0.1203347518333686</v>
+        <v>0.2914293965006038</v>
       </c>
       <c r="E2">
-        <v>0.02192310777226059</v>
+        <v>0.04087277362430974</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.0008568283726155224</v>
+        <v>0.002743893940322697</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>2.512653518107811</v>
+        <v>3.91773763586292</v>
       </c>
       <c r="J2">
-        <v>0.08301694121322356</v>
+        <v>0.02480685757290502</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.4362189932996188</v>
+        <v>0.767596745349735</v>
       </c>
       <c r="M2">
-        <v>0.8978445122372349</v>
+        <v>1.144258733681184</v>
       </c>
       <c r="N2">
-        <v>2.470114358239798</v>
+        <v>4.082271666634526</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>4.232552771411804</v>
+        <v>5.171146224688584</v>
       </c>
       <c r="C3">
-        <v>1.173663434325647</v>
+        <v>0.9506475095675455</v>
       </c>
       <c r="D3">
-        <v>0.1160862676288943</v>
+        <v>0.291997607752684</v>
       </c>
       <c r="E3">
-        <v>0.02084247603899581</v>
+        <v>0.04051295017199052</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.0008690470072698265</v>
+        <v>0.002751313913116166</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>2.381003757666875</v>
+        <v>3.901324815216753</v>
       </c>
       <c r="J3">
-        <v>0.07112139419322006</v>
+        <v>0.02163968271359806</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.4051333217760771</v>
+        <v>0.7649066336240793</v>
       </c>
       <c r="M3">
-        <v>0.8061936978845736</v>
+        <v>1.13017328850885</v>
       </c>
       <c r="N3">
-        <v>2.47282320729542</v>
+        <v>4.08578474987327</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3.915651421702989</v>
+        <v>5.118552558480701</v>
       </c>
       <c r="C4">
-        <v>1.073528574592501</v>
+        <v>0.9297073661742843</v>
       </c>
       <c r="D4">
-        <v>0.1136584106208005</v>
+        <v>0.2924477854757797</v>
       </c>
       <c r="E4">
-        <v>0.02019063327232207</v>
+        <v>0.04028737989208775</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.0008767203333388687</v>
+        <v>0.002756106599938953</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>2.30493079047487</v>
+        <v>3.892793537868542</v>
       </c>
       <c r="J4">
-        <v>0.06398198090316498</v>
+        <v>0.01970034907523655</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.386893305346689</v>
+        <v>0.7636045592358158</v>
       </c>
       <c r="M4">
-        <v>0.7517887653519324</v>
+        <v>1.122168892013157</v>
       </c>
       <c r="N4">
-        <v>2.477234801430654</v>
+        <v>4.088780339964885</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>3.788724288936123</v>
+        <v>5.097917246920588</v>
       </c>
       <c r="C5">
-        <v>1.033391579901206</v>
+        <v>0.9213378683924702</v>
       </c>
       <c r="D5">
-        <v>0.1127113398206134</v>
+        <v>0.2926567203510047</v>
       </c>
       <c r="E5">
-        <v>0.01992724103419086</v>
+        <v>0.04019427670967435</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.0008798935866540216</v>
+        <v>0.002758119426760618</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>2.275016125597858</v>
+        <v>3.889704448001808</v>
       </c>
       <c r="J5">
-        <v>0.06110726531664312</v>
+        <v>0.01891127154877381</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.3796531540047567</v>
+        <v>0.7631617448616907</v>
       </c>
       <c r="M5">
-        <v>0.7300363068381088</v>
+        <v>1.119068526344613</v>
       </c>
       <c r="N5">
-        <v>2.479675710793501</v>
+        <v>4.090211076252714</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>3.767773820052753</v>
+        <v>5.094538824753556</v>
       </c>
       <c r="C6">
-        <v>1.026764539223791</v>
+        <v>0.9199579709083423</v>
       </c>
       <c r="D6">
-        <v>0.1125565483534885</v>
+        <v>0.2926929533847868</v>
       </c>
       <c r="E6">
-        <v>0.01988362135530242</v>
+        <v>0.0401787451922706</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.0008804233904939509</v>
+        <v>0.002758457271836725</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>2.27011135087416</v>
+        <v>3.889214870722029</v>
       </c>
       <c r="J6">
-        <v>0.06063183111719894</v>
+        <v>0.01878031576568162</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.3784620283783937</v>
+        <v>0.7630935144580917</v>
       </c>
       <c r="M6">
-        <v>0.7264481544317505</v>
+        <v>1.118563452931824</v>
       </c>
       <c r="N6">
-        <v>2.480118558943431</v>
+        <v>4.090461308285413</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>3.913931042309059</v>
+        <v>5.118271040048285</v>
       </c>
       <c r="C7">
-        <v>1.072984689287637</v>
+        <v>0.9295938308993072</v>
       </c>
       <c r="D7">
-        <v>0.1136454707438759</v>
+        <v>0.2924505000413333</v>
       </c>
       <c r="E7">
-        <v>0.02018707286816301</v>
+        <v>0.0402861290739569</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.0008767629372617692</v>
+        <v>0.002756133503444853</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>2.304523093811497</v>
+        <v>3.892750310195481</v>
       </c>
       <c r="J7">
-        <v>0.06394307952920997</v>
+        <v>0.01968970253474822</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.3867949065522964</v>
+        <v>0.7635982319917218</v>
       </c>
       <c r="M7">
-        <v>0.7514937764747316</v>
+        <v>1.122126426144419</v>
       </c>
       <c r="N7">
-        <v>2.477265176030158</v>
+        <v>4.088798786163593</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>4.579091307090948</v>
+        <v>5.230001182144406</v>
       </c>
       <c r="C8">
-        <v>1.28307986535674</v>
+        <v>0.9735564002015167</v>
       </c>
       <c r="D8">
-        <v>0.1188303651920037</v>
+        <v>0.2916042990819321</v>
       </c>
       <c r="E8">
-        <v>0.02154763883139488</v>
+        <v>0.04074965958633392</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.0008610079546376283</v>
+        <v>0.002746403335761199</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>2.466201797117122</v>
+        <v>3.911756739131206</v>
       </c>
       <c r="J8">
-        <v>0.0788769387679622</v>
+        <v>0.02371363574963681</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.425312128126464</v>
+        <v>0.7665965363945304</v>
       </c>
       <c r="M8">
-        <v>0.8658223193727181</v>
+        <v>1.139268084174795</v>
       </c>
       <c r="N8">
-        <v>2.470447449400197</v>
+        <v>4.083308421011964</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5.977527015238422</v>
+        <v>5.474498011439721</v>
       </c>
       <c r="C9">
-        <v>1.724469192612332</v>
+        <v>1.065049268496352</v>
       </c>
       <c r="D9">
-        <v>0.1305936493383868</v>
+        <v>0.2907483097286203</v>
       </c>
       <c r="E9">
-        <v>0.02434470481856632</v>
+        <v>0.04162257137358161</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.0008313004409931575</v>
+        <v>0.002729191106925277</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>2.826761591651731</v>
+        <v>3.961364391245738</v>
       </c>
       <c r="J9">
-        <v>0.109814656822472</v>
+        <v>0.03165272084328308</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.5085987359158821</v>
+        <v>0.7752581678543322</v>
       </c>
       <c r="M9">
-        <v>1.107530239945341</v>
+        <v>1.178019131995399</v>
       </c>
       <c r="N9">
-        <v>2.481352741746349</v>
+        <v>4.079235320739798</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>7.086749294405024</v>
+        <v>5.669854275597515</v>
       </c>
       <c r="C10">
-        <v>2.075073572091867</v>
+        <v>1.135595586778834</v>
       </c>
       <c r="D10">
-        <v>0.1404709336017476</v>
+        <v>0.2906091413718315</v>
       </c>
       <c r="E10">
-        <v>0.02653874434339087</v>
+        <v>0.04224295621594454</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.0008099253058553038</v>
+        <v>0.002717670050929315</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>3.127510827909845</v>
+        <v>4.005434168442591</v>
       </c>
       <c r="J10">
-        <v>0.1341194060469775</v>
+        <v>0.03752370626780532</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.5762008582350688</v>
+        <v>0.7833303815525028</v>
       </c>
       <c r="M10">
-        <v>1.300145313693193</v>
+        <v>1.209661643511424</v>
       </c>
       <c r="N10">
-        <v>2.508176854200372</v>
+        <v>4.080381284670011</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>7.615805667535142</v>
+        <v>5.762197328310492</v>
       </c>
       <c r="C11">
-        <v>2.242592878266692</v>
+        <v>1.168435194375036</v>
       </c>
       <c r="D11">
-        <v>0.1453036950974678</v>
+        <v>0.290652209566673</v>
       </c>
       <c r="E11">
-        <v>0.02758404381251722</v>
+        <v>0.04252086790011145</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.0008002250180661894</v>
+        <v>0.002712669975162434</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>3.27466250296699</v>
+        <v>4.027161220596554</v>
       </c>
       <c r="J11">
-        <v>0.1456744642750962</v>
+        <v>0.04020480505469948</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.6088070044311849</v>
+        <v>0.787376593807096</v>
       </c>
       <c r="M11">
-        <v>1.39222571470107</v>
+        <v>1.224754892384709</v>
       </c>
       <c r="N11">
-        <v>2.525566163647284</v>
+        <v>4.081814148644327</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>7.82034383897809</v>
+        <v>5.797669038642368</v>
       </c>
       <c r="C12">
-        <v>2.30741831866743</v>
+        <v>1.180980050266612</v>
       </c>
       <c r="D12">
-        <v>0.1471897712124246</v>
+        <v>0.29068381625261</v>
       </c>
       <c r="E12">
-        <v>0.02798843600416401</v>
+        <v>0.04262550488304218</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.0007965476317665738</v>
+        <v>0.002710810981408782</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>3.332131775996572</v>
+        <v>4.035632001454474</v>
       </c>
       <c r="J12">
-        <v>0.150137797057873</v>
+        <v>0.0412217070514842</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.6214674593075671</v>
+        <v>0.78896280829197</v>
       </c>
       <c r="M12">
-        <v>1.4278565283349</v>
+        <v>1.230571519511201</v>
       </c>
       <c r="N12">
-        <v>2.533009806009858</v>
+        <v>4.082488865908942</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>7.776094122656673</v>
+        <v>5.790007120982182</v>
       </c>
       <c r="C13">
-        <v>2.293390978814614</v>
+        <v>1.178273406741482</v>
       </c>
       <c r="D13">
-        <v>0.146780951345221</v>
+        <v>0.290676328787896</v>
       </c>
       <c r="E13">
-        <v>0.02790093007936179</v>
+        <v>0.0426029959464671</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.0007973399384230855</v>
+        <v>0.002711209821292655</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>3.319672433398125</v>
+        <v>4.033796822368529</v>
       </c>
       <c r="J13">
-        <v>0.1491723516336165</v>
+        <v>0.04100262437127355</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.6187260378704451</v>
+        <v>0.7886187835486282</v>
       </c>
       <c r="M13">
-        <v>1.420146743097533</v>
+        <v>1.22931429609892</v>
       </c>
       <c r="N13">
-        <v>2.531366470085032</v>
+        <v>4.082337660467545</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>7.632544723418675</v>
+        <v>5.765105496364754</v>
       </c>
       <c r="C14">
-        <v>2.247896753547593</v>
+        <v>1.169465068711986</v>
       </c>
       <c r="D14">
-        <v>0.1454576953328228</v>
+        <v>0.2906545032678736</v>
       </c>
       <c r="E14">
-        <v>0.0276171304084567</v>
+        <v>0.04252948841804738</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.0007999226071071724</v>
+        <v>0.002712516345702704</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>3.279353883282525</v>
+        <v>4.027853232450653</v>
       </c>
       <c r="J14">
-        <v>0.1460398057359598</v>
+        <v>0.04028843276270067</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.6098420125051121</v>
+        <v>0.787506009156445</v>
       </c>
       <c r="M14">
-        <v>1.395141041115451</v>
+        <v>1.225231399042372</v>
       </c>
       <c r="N14">
-        <v>2.526160625817226</v>
+        <v>4.081867004071995</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>7.54518524811931</v>
+        <v>5.749918203743391</v>
       </c>
       <c r="C15">
-        <v>2.2202189106888</v>
+        <v>1.164083980279315</v>
       </c>
       <c r="D15">
-        <v>0.1446546926963919</v>
+        <v>0.2906431267721103</v>
       </c>
       <c r="E15">
-        <v>0.02744446837093051</v>
+        <v>0.04248438502176644</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.00080150378833886</v>
+        <v>0.002713321106797977</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>3.254893512317423</v>
+        <v>4.024244337587476</v>
       </c>
       <c r="J15">
-        <v>0.1441329752359124</v>
+        <v>0.03985118595731763</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.6044426103719331</v>
+        <v>0.7868314415146784</v>
       </c>
       <c r="M15">
-        <v>1.379927518035032</v>
+        <v>1.222743697609161</v>
       </c>
       <c r="N15">
-        <v>2.523087427414623</v>
+        <v>4.081595950956199</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>7.052721742870006</v>
+        <v>5.663889675562359</v>
       </c>
       <c r="C16">
-        <v>2.064306462393574</v>
+        <v>1.133464630779599</v>
       </c>
       <c r="D16">
-        <v>0.1401625199869443</v>
+        <v>0.290608467371456</v>
       </c>
       <c r="E16">
-        <v>0.02647152508833273</v>
+        <v>0.04222470885077012</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.0008105591047485356</v>
+        <v>0.00271800164691582</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>3.118123295870078</v>
+        <v>4.004048195241225</v>
       </c>
       <c r="J16">
-        <v>0.1333755898017088</v>
+        <v>0.03734871038265908</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.5741110712028359</v>
+        <v>0.7830734975480311</v>
       </c>
       <c r="M16">
-        <v>1.2942272054065</v>
+        <v>1.208689382207353</v>
       </c>
       <c r="N16">
-        <v>2.507153979031074</v>
+        <v>4.080306075148741</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6.75732301670331</v>
+        <v>5.612006510805998</v>
       </c>
       <c r="C17">
-        <v>1.970869559129198</v>
+        <v>1.114873352034692</v>
       </c>
       <c r="D17">
-        <v>0.1374984154201684</v>
+        <v>0.2906144506611525</v>
       </c>
       <c r="E17">
-        <v>0.02588790218358294</v>
+        <v>0.04206431535881183</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.0008161153264386045</v>
+        <v>0.002720934555788163</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>3.037037740522166</v>
+        <v>3.992089876250859</v>
       </c>
       <c r="J17">
-        <v>0.1269144798186517</v>
+        <v>0.03581627350767036</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.5560090830703075</v>
+        <v>0.7808640842466872</v>
       </c>
       <c r="M17">
-        <v>1.242874235459198</v>
+        <v>1.200246970756268</v>
       </c>
       <c r="N17">
-        <v>2.498781868976181</v>
+        <v>4.07974898542966</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6.589673324199168</v>
+        <v>5.582491491389192</v>
       </c>
       <c r="C18">
-        <v>1.917866384372303</v>
+        <v>1.104250417373066</v>
       </c>
       <c r="D18">
-        <v>0.1359975550033141</v>
+        <v>0.2906279046098774</v>
       </c>
       <c r="E18">
-        <v>0.02555653792129409</v>
+        <v>0.04197165508457879</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.0008193138333231252</v>
+        <v>0.002722644176095718</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>2.991354684472014</v>
+        <v>3.985369744207489</v>
       </c>
       <c r="J18">
-        <v>0.1232440498447716</v>
+        <v>0.0349358228709491</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.54576853530736</v>
+        <v>0.7796284895764103</v>
       </c>
       <c r="M18">
-        <v>1.213748682907166</v>
+        <v>1.195456864394046</v>
       </c>
       <c r="N18">
-        <v>2.494446836039884</v>
+        <v>4.079514299028205</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6.533278726290348</v>
+        <v>5.572554228944341</v>
       </c>
       <c r="C19">
-        <v>1.90004090305257</v>
+        <v>1.100665693628514</v>
       </c>
       <c r="D19">
-        <v>0.1354945938481578</v>
+        <v>0.2906341795447531</v>
       </c>
       <c r="E19">
-        <v>0.02544503732637171</v>
+        <v>0.04194021163683637</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.0008203974655536522</v>
+        <v>0.002723226927392347</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>2.976044078862415</v>
+        <v>3.983121504204348</v>
       </c>
       <c r="J19">
-        <v>0.1220087366436076</v>
+        <v>0.03463787923044492</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.5423293815750867</v>
+        <v>0.7792161782683422</v>
       </c>
       <c r="M19">
-        <v>1.203954576674448</v>
+        <v>1.193846289397428</v>
       </c>
       <c r="N19">
-        <v>2.493058460628077</v>
+        <v>4.079449532172589</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6.788530716317155</v>
+        <v>5.617495712289156</v>
       </c>
       <c r="C20">
-        <v>1.980737998304505</v>
+        <v>1.116845139883139</v>
       </c>
       <c r="D20">
-        <v>0.1377787095622836</v>
+        <v>0.2906127774712246</v>
       </c>
       <c r="E20">
-        <v>0.02594957100746154</v>
+        <v>0.04208143143668419</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.000815523625934893</v>
+        <v>0.002720619995938164</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>3.045568843661471</v>
+        <v>3.993346497488346</v>
       </c>
       <c r="J20">
-        <v>0.1275974264328568</v>
+        <v>0.03597930300104935</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.5579180363968561</v>
+        <v>0.7810956354055492</v>
       </c>
       <c r="M20">
-        <v>1.248297470078086</v>
+        <v>1.201138870909588</v>
       </c>
       <c r="N20">
-        <v>2.499622623774428</v>
+        <v>4.079799407660374</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>7.67458875957891</v>
+        <v>5.772406014364947</v>
       </c>
       <c r="C21">
-        <v>2.261219705113547</v>
+        <v>1.172049313579691</v>
       </c>
       <c r="D21">
-        <v>0.1458447837887604</v>
+        <v>0.2906604987623922</v>
       </c>
       <c r="E21">
-        <v>0.02770024101714341</v>
+        <v>0.04255109556757386</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.0007991641920757734</v>
+        <v>0.002712131655268118</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>3.291146724259193</v>
+        <v>4.029592394186409</v>
       </c>
       <c r="J21">
-        <v>0.1469573883182989</v>
+        <v>0.04049816284921803</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.6124425509999867</v>
+        <v>0.7878313907137766</v>
       </c>
       <c r="M21">
-        <v>1.402464069227619</v>
+        <v>1.226427894735863</v>
       </c>
       <c r="N21">
-        <v>2.527665399991491</v>
+        <v>4.082001653089378</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>8.278547091251539</v>
+        <v>5.87658488812292</v>
       </c>
       <c r="C22">
-        <v>2.452773066323346</v>
+        <v>1.208765796600858</v>
       </c>
       <c r="D22">
-        <v>0.1514472482816842</v>
+        <v>0.2907808556189195</v>
       </c>
       <c r="E22">
-        <v>0.02889540257461931</v>
+        <v>0.04285454647309361</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.0007884439654574338</v>
+        <v>0.002706784598590607</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>3.461981035654304</v>
+        <v>4.05469966607069</v>
       </c>
       <c r="J22">
-        <v>0.1601310791111104</v>
+        <v>0.04346105465083383</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.6499313739207793</v>
+        <v>0.792548460172938</v>
       </c>
       <c r="M22">
-        <v>1.507735316293775</v>
+        <v>1.243545574490369</v>
       </c>
       <c r="N22">
-        <v>2.551066636578156</v>
+        <v>4.084211557517818</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>7.953669609273334</v>
+        <v>5.820712738645113</v>
       </c>
       <c r="C23">
-        <v>2.349693458670401</v>
+        <v>1.189110632838322</v>
       </c>
       <c r="D23">
-        <v>0.1484241106791586</v>
+        <v>0.2907084592918352</v>
       </c>
       <c r="E23">
-        <v>0.02825217125709223</v>
+        <v>0.04269290380108171</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.0007941709847200333</v>
+        <v>0.002709620143060388</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>3.369759115422539</v>
+        <v>4.041169075259987</v>
       </c>
       <c r="J23">
-        <v>0.153046267658226</v>
+        <v>0.04187878278575852</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.6297354910057322</v>
+        <v>0.7900019918547088</v>
       </c>
       <c r="M23">
-        <v>1.451091011712847</v>
+        <v>1.234355359595085</v>
       </c>
       <c r="N23">
-        <v>2.538069679284604</v>
+        <v>4.082961229876389</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6.774414977808647</v>
+        <v>5.615013068712813</v>
       </c>
       <c r="C24">
-        <v>1.976274267183044</v>
+        <v>1.115953490895436</v>
       </c>
       <c r="D24">
-        <v>0.1376518932665789</v>
+        <v>0.2906135027287391</v>
       </c>
       <c r="E24">
-        <v>0.02592167767670883</v>
+        <v>0.04207369465429966</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.0008157911201777455</v>
+        <v>0.002720762135549433</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>3.041709041357251</v>
+        <v>3.992777896786265</v>
       </c>
       <c r="J24">
-        <v>0.1272885299180828</v>
+        <v>0.0359055956092007</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.5570544833102673</v>
+        <v>0.7809908432877535</v>
       </c>
       <c r="M24">
-        <v>1.245844394986818</v>
+        <v>1.200735444959065</v>
       </c>
       <c r="N24">
-        <v>2.499241037313652</v>
+        <v>4.079776345248973</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>5.586838629705028</v>
+        <v>5.405611735589105</v>
       </c>
       <c r="C25">
-        <v>1.601125001543664</v>
+        <v>1.039721650326157</v>
       </c>
       <c r="D25">
-        <v>0.1272157859294154</v>
+        <v>0.2908938780362078</v>
       </c>
       <c r="E25">
-        <v>0.02356858736205236</v>
+        <v>0.04139017977577542</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.0008392357778031774</v>
+        <v>0.002733648912774312</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>2.723684311321435</v>
+        <v>3.946613077186583</v>
       </c>
       <c r="J25">
-        <v>0.1012149508669467</v>
+        <v>0.02949893194779207</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.4850785540180595</v>
+        <v>0.7726158701137251</v>
       </c>
       <c r="M25">
-        <v>1.039856476159152</v>
+        <v>1.166981914426728</v>
       </c>
       <c r="N25">
-        <v>2.475426217902097</v>
+        <v>4.079614691953026</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_201/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_201/res_line/pl_mw.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>5.261984186751761</v>
+        <v>4.764895771557349</v>
       </c>
       <c r="C2">
-        <v>0.9858216608980683</v>
+        <v>1.341725227644133</v>
       </c>
       <c r="D2">
-        <v>0.2914293965006038</v>
+        <v>0.1203347518336457</v>
       </c>
       <c r="E2">
-        <v>0.04087277362430974</v>
+        <v>0.02192310777225348</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.002743893940322697</v>
+        <v>0.0008568283724764181</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>3.91773763586292</v>
+        <v>2.512653518107811</v>
       </c>
       <c r="J2">
-        <v>0.02480685757290502</v>
+        <v>0.08301694121325909</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.767596745349735</v>
+        <v>0.4362189932995761</v>
       </c>
       <c r="M2">
-        <v>1.144258733681184</v>
+        <v>0.8978445122372207</v>
       </c>
       <c r="N2">
-        <v>4.082271666634526</v>
+        <v>2.470114358239826</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>5.171146224688584</v>
+        <v>4.232552771411804</v>
       </c>
       <c r="C3">
-        <v>0.9506475095675455</v>
+        <v>1.173663434325704</v>
       </c>
       <c r="D3">
-        <v>0.291997607752684</v>
+        <v>0.1160862676291075</v>
       </c>
       <c r="E3">
-        <v>0.04051295017199052</v>
+        <v>0.02084247603901623</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.002751313913116166</v>
+        <v>0.0008690470073377789</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>3.901324815216753</v>
+        <v>2.381003757666861</v>
       </c>
       <c r="J3">
-        <v>0.02163968271359806</v>
+        <v>0.07112139419317742</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.7649066336240793</v>
+        <v>0.4051333217761481</v>
       </c>
       <c r="M3">
-        <v>1.13017328850885</v>
+        <v>0.8061936978845807</v>
       </c>
       <c r="N3">
-        <v>4.08578474987327</v>
+        <v>2.472823207295392</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>5.118552558480701</v>
+        <v>3.915651421702933</v>
       </c>
       <c r="C4">
-        <v>0.9297073661742843</v>
+        <v>1.073528574592672</v>
       </c>
       <c r="D4">
-        <v>0.2924477854757797</v>
+        <v>0.1136584106207792</v>
       </c>
       <c r="E4">
-        <v>0.04028737989208775</v>
+        <v>0.02019063327233805</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.002756106599938953</v>
+        <v>0.0008767203332658013</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>3.892793537868542</v>
+        <v>2.304930790474856</v>
       </c>
       <c r="J4">
-        <v>0.01970034907523655</v>
+        <v>0.06398198090329998</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.7636045592358158</v>
+        <v>0.3868933053467742</v>
       </c>
       <c r="M4">
-        <v>1.122168892013157</v>
+        <v>0.7517887653519395</v>
       </c>
       <c r="N4">
-        <v>4.088780339964885</v>
+        <v>2.477234801430598</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>5.097917246920588</v>
+        <v>3.788724288935953</v>
       </c>
       <c r="C5">
-        <v>0.9213378683924702</v>
+        <v>1.033391579901263</v>
       </c>
       <c r="D5">
-        <v>0.2926567203510047</v>
+        <v>0.1127113398205921</v>
       </c>
       <c r="E5">
-        <v>0.04019427670967435</v>
+        <v>0.01992724103418198</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.002758119426760618</v>
+        <v>0.0008798935865894641</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>3.889704448001808</v>
+        <v>2.275016125597858</v>
       </c>
       <c r="J5">
-        <v>0.01891127154877381</v>
+        <v>0.06110726531665733</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.7631617448616907</v>
+        <v>0.3796531540048278</v>
       </c>
       <c r="M5">
-        <v>1.119068526344613</v>
+        <v>0.7300363068381088</v>
       </c>
       <c r="N5">
-        <v>4.090211076252714</v>
+        <v>2.479675710793501</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>5.094538824753556</v>
+        <v>3.767773820052923</v>
       </c>
       <c r="C6">
-        <v>0.9199579709083423</v>
+        <v>1.026764539224132</v>
       </c>
       <c r="D6">
-        <v>0.2926929533847868</v>
+        <v>0.1125565483534956</v>
       </c>
       <c r="E6">
-        <v>0.0401787451922706</v>
+        <v>0.01988362135530242</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.002758457271836725</v>
+        <v>0.0008804233904878113</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>3.889214870722029</v>
+        <v>2.27011135087416</v>
       </c>
       <c r="J6">
-        <v>0.01878031576568162</v>
+        <v>0.06063183111727</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.7630935144580917</v>
+        <v>0.3784620283784648</v>
       </c>
       <c r="M6">
-        <v>1.118563452931824</v>
+        <v>0.7264481544317505</v>
       </c>
       <c r="N6">
-        <v>4.090461308285413</v>
+        <v>2.480118558943403</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>5.118271040048285</v>
+        <v>3.9139310423094</v>
       </c>
       <c r="C7">
-        <v>0.9295938308993072</v>
+        <v>1.072984689288148</v>
       </c>
       <c r="D7">
-        <v>0.2924505000413333</v>
+        <v>0.1136454707437338</v>
       </c>
       <c r="E7">
-        <v>0.0402861290739569</v>
+        <v>0.02018707286816035</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.002756133503444853</v>
+        <v>0.0008767629372006501</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>3.892750310195481</v>
+        <v>2.304523093811525</v>
       </c>
       <c r="J7">
-        <v>0.01968970253474822</v>
+        <v>0.06394307952906786</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.7635982319917218</v>
+        <v>0.3867949065523533</v>
       </c>
       <c r="M7">
-        <v>1.122126426144419</v>
+        <v>0.7514937764747387</v>
       </c>
       <c r="N7">
-        <v>4.088798786163593</v>
+        <v>2.477265176030187</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>5.230001182144406</v>
+        <v>4.579091307090948</v>
       </c>
       <c r="C8">
-        <v>0.9735564002015167</v>
+        <v>1.283079865356399</v>
       </c>
       <c r="D8">
-        <v>0.2916042990819321</v>
+        <v>0.1188303651921245</v>
       </c>
       <c r="E8">
-        <v>0.04074965958633392</v>
+        <v>0.02154763883132027</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.002746403335761199</v>
+        <v>0.0008610079546453408</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>3.911756739131206</v>
+        <v>2.466201797117122</v>
       </c>
       <c r="J8">
-        <v>0.02371363574963681</v>
+        <v>0.07887693876772062</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.7665965363945304</v>
+        <v>0.4253121281263219</v>
       </c>
       <c r="M8">
-        <v>1.139268084174795</v>
+        <v>0.8658223193727039</v>
       </c>
       <c r="N8">
-        <v>4.083308421011964</v>
+        <v>2.470447449400197</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5.474498011439721</v>
+        <v>5.977527015238422</v>
       </c>
       <c r="C9">
-        <v>1.065049268496352</v>
+        <v>1.724469192612389</v>
       </c>
       <c r="D9">
-        <v>0.2907483097286203</v>
+        <v>0.1305936493383442</v>
       </c>
       <c r="E9">
-        <v>0.04162257137358161</v>
+        <v>0.02434470481869688</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.002729191106925277</v>
+        <v>0.0008313004408216126</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>3.961364391245738</v>
+        <v>2.826761591651731</v>
       </c>
       <c r="J9">
-        <v>0.03165272084328308</v>
+        <v>0.1098146568224081</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.7752581678543322</v>
+        <v>0.5085987359159105</v>
       </c>
       <c r="M9">
-        <v>1.178019131995399</v>
+        <v>1.107530239945376</v>
       </c>
       <c r="N9">
-        <v>4.079235320739798</v>
+        <v>2.481352741746321</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.669854275597515</v>
+        <v>7.08674929440491</v>
       </c>
       <c r="C10">
-        <v>1.135595586778834</v>
+        <v>2.075073572091696</v>
       </c>
       <c r="D10">
-        <v>0.2906091413718315</v>
+        <v>0.1404709336017618</v>
       </c>
       <c r="E10">
-        <v>0.04224295621594454</v>
+        <v>0.02653874434340953</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.002717670050929315</v>
+        <v>0.0008099253059070366</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>4.005434168442591</v>
+        <v>3.127510827909845</v>
       </c>
       <c r="J10">
-        <v>0.03752370626780532</v>
+        <v>0.1341194060471196</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.7833303815525028</v>
+        <v>0.576200858235012</v>
       </c>
       <c r="M10">
-        <v>1.209661643511424</v>
+        <v>1.300145313693207</v>
       </c>
       <c r="N10">
-        <v>4.080381284670011</v>
+        <v>2.508176854200372</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.762197328310492</v>
+        <v>7.615805667535028</v>
       </c>
       <c r="C11">
-        <v>1.168435194375036</v>
+        <v>2.242592878267033</v>
       </c>
       <c r="D11">
-        <v>0.290652209566673</v>
+        <v>0.1453036950978941</v>
       </c>
       <c r="E11">
-        <v>0.04252086790011145</v>
+        <v>0.02758404381244706</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.002712669975162434</v>
+        <v>0.0008002250183099512</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>4.027161220596554</v>
+        <v>3.274662502967004</v>
       </c>
       <c r="J11">
-        <v>0.04020480505469948</v>
+        <v>0.1456744642752454</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.787376593807096</v>
+        <v>0.6088070044310285</v>
       </c>
       <c r="M11">
-        <v>1.224754892384709</v>
+        <v>1.39222571470107</v>
       </c>
       <c r="N11">
-        <v>4.081814148644327</v>
+        <v>2.525566163647284</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.797669038642368</v>
+        <v>7.820343838978147</v>
       </c>
       <c r="C12">
-        <v>1.180980050266612</v>
+        <v>2.307418318667544</v>
       </c>
       <c r="D12">
-        <v>0.29068381625261</v>
+        <v>0.1471897712124388</v>
       </c>
       <c r="E12">
-        <v>0.04262550488304218</v>
+        <v>0.02798843600411782</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.002710810981408782</v>
+        <v>0.0007965476318034087</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>4.035632001454474</v>
+        <v>3.332131775996572</v>
       </c>
       <c r="J12">
-        <v>0.0412217070514842</v>
+        <v>0.150137797057873</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.78896280829197</v>
+        <v>0.621467459307695</v>
       </c>
       <c r="M12">
-        <v>1.230571519511201</v>
+        <v>1.427856528334885</v>
       </c>
       <c r="N12">
-        <v>4.082488865908942</v>
+        <v>2.533009806009858</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.790007120982182</v>
+        <v>7.776094122656673</v>
       </c>
       <c r="C13">
-        <v>1.178273406741482</v>
+        <v>2.293390978814898</v>
       </c>
       <c r="D13">
-        <v>0.290676328787896</v>
+        <v>0.1467809513454768</v>
       </c>
       <c r="E13">
-        <v>0.0426029959464671</v>
+        <v>0.02790093007939554</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.002711209821292655</v>
+        <v>0.0007973399383324124</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>4.033796822368529</v>
+        <v>3.319672433398154</v>
       </c>
       <c r="J13">
-        <v>0.04100262437127355</v>
+        <v>0.1491723516337444</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.7886187835486282</v>
+        <v>0.618726037870573</v>
       </c>
       <c r="M13">
-        <v>1.22931429609892</v>
+        <v>1.420146743097504</v>
       </c>
       <c r="N13">
-        <v>4.082337660467545</v>
+        <v>2.531366470085089</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.765105496364754</v>
+        <v>7.632544723418903</v>
       </c>
       <c r="C14">
-        <v>1.169465068711986</v>
+        <v>2.247896753547309</v>
       </c>
       <c r="D14">
-        <v>0.2906545032678736</v>
+        <v>0.1454576953326381</v>
       </c>
       <c r="E14">
-        <v>0.04252948841804738</v>
+        <v>0.02761713040851443</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.002712516345702704</v>
+        <v>0.0007999226071058401</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>4.027853232450653</v>
+        <v>3.279353883282525</v>
       </c>
       <c r="J14">
-        <v>0.04028843276270067</v>
+        <v>0.1460398057358674</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.787506009156445</v>
+        <v>0.609842012505311</v>
       </c>
       <c r="M14">
-        <v>1.225231399042372</v>
+        <v>1.395141041115366</v>
       </c>
       <c r="N14">
-        <v>4.081867004071995</v>
+        <v>2.526160625817255</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.749918203743391</v>
+        <v>7.545185248119253</v>
       </c>
       <c r="C15">
-        <v>1.164083980279315</v>
+        <v>2.220218910688516</v>
       </c>
       <c r="D15">
-        <v>0.2906431267721103</v>
+        <v>0.1446546926962213</v>
       </c>
       <c r="E15">
-        <v>0.04248438502176644</v>
+        <v>0.02744446837093584</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.002713321106797977</v>
+        <v>0.0008015037882833417</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>4.024244337587476</v>
+        <v>3.254893512317409</v>
       </c>
       <c r="J15">
-        <v>0.03985118595731763</v>
+        <v>0.1441329752357206</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.7868314415146784</v>
+        <v>0.6044426103721321</v>
       </c>
       <c r="M15">
-        <v>1.222743697609161</v>
+        <v>1.379927518035032</v>
       </c>
       <c r="N15">
-        <v>4.081595950956199</v>
+        <v>2.523087427414623</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.663889675562359</v>
+        <v>7.052721742870176</v>
       </c>
       <c r="C16">
-        <v>1.133464630779599</v>
+        <v>2.064306462393688</v>
       </c>
       <c r="D16">
-        <v>0.290608467371456</v>
+        <v>0.1401625199867098</v>
       </c>
       <c r="E16">
-        <v>0.04222470885077012</v>
+        <v>0.02647152508831763</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.00271800164691582</v>
+        <v>0.0008105591048308125</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>4.004048195241225</v>
+        <v>3.118123295870092</v>
       </c>
       <c r="J16">
-        <v>0.03734871038265908</v>
+        <v>0.1333755898017586</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.7830734975480311</v>
+        <v>0.574111071202779</v>
       </c>
       <c r="M16">
-        <v>1.208689382207353</v>
+        <v>1.294227205406528</v>
       </c>
       <c r="N16">
-        <v>4.080306075148741</v>
+        <v>2.507153979031074</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.612006510805998</v>
+        <v>6.75732301670331</v>
       </c>
       <c r="C17">
-        <v>1.114873352034692</v>
+        <v>1.970869559129426</v>
       </c>
       <c r="D17">
-        <v>0.2906144506611525</v>
+        <v>0.1374984154201542</v>
       </c>
       <c r="E17">
-        <v>0.04206431535881183</v>
+        <v>0.02588790218362647</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.002720934555788163</v>
+        <v>0.0008161153262928322</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>3.992089876250859</v>
+        <v>3.037037740522166</v>
       </c>
       <c r="J17">
-        <v>0.03581627350767036</v>
+        <v>0.1269144798187298</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.7808640842466872</v>
+        <v>0.5560090830702933</v>
       </c>
       <c r="M17">
-        <v>1.200246970756268</v>
+        <v>1.242874235459212</v>
       </c>
       <c r="N17">
-        <v>4.07974898542966</v>
+        <v>2.498781868976181</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.582491491389192</v>
+        <v>6.589673324199339</v>
       </c>
       <c r="C18">
-        <v>1.104250417373066</v>
+        <v>1.917866384372189</v>
       </c>
       <c r="D18">
-        <v>0.2906279046098774</v>
+        <v>0.1359975550033141</v>
       </c>
       <c r="E18">
-        <v>0.04197165508457879</v>
+        <v>0.02555653792119994</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.002722644176095718</v>
+        <v>0.0008193138332611234</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>3.985369744207489</v>
+        <v>2.991354684472014</v>
       </c>
       <c r="J18">
-        <v>0.0349358228709491</v>
+        <v>0.1232440498447005</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.7796284895764103</v>
+        <v>0.5457685353073884</v>
       </c>
       <c r="M18">
-        <v>1.195456864394046</v>
+        <v>1.213748682907166</v>
       </c>
       <c r="N18">
-        <v>4.079514299028205</v>
+        <v>2.494446836039913</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.572554228944341</v>
+        <v>6.533278726290234</v>
       </c>
       <c r="C19">
-        <v>1.100665693628514</v>
+        <v>1.900040903052513</v>
       </c>
       <c r="D19">
-        <v>0.2906341795447531</v>
+        <v>0.1354945938480014</v>
       </c>
       <c r="E19">
-        <v>0.04194021163683637</v>
+        <v>0.02544503732638237</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.002723226927392347</v>
+        <v>0.000820397465645755</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>3.983121504204348</v>
+        <v>2.976044078862444</v>
       </c>
       <c r="J19">
-        <v>0.03463787923044492</v>
+        <v>0.1220087366435507</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.7792161782683422</v>
+        <v>0.5423293815752857</v>
       </c>
       <c r="M19">
-        <v>1.193846289397428</v>
+        <v>1.203954576674462</v>
       </c>
       <c r="N19">
-        <v>4.079449532172589</v>
+        <v>2.493058460628106</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.617495712289156</v>
+        <v>6.788530716317211</v>
       </c>
       <c r="C20">
-        <v>1.116845139883139</v>
+        <v>1.980737998304846</v>
       </c>
       <c r="D20">
-        <v>0.2906127774712246</v>
+        <v>0.137778709562042</v>
       </c>
       <c r="E20">
-        <v>0.04208143143668419</v>
+        <v>0.02594957100746154</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.002720619995938164</v>
+        <v>0.0008155236260230474</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>3.993346497488346</v>
+        <v>3.045568843661485</v>
       </c>
       <c r="J20">
-        <v>0.03597930300104935</v>
+        <v>0.1275974264327715</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.7810956354055492</v>
+        <v>0.5579180363969698</v>
       </c>
       <c r="M20">
-        <v>1.201138870909588</v>
+        <v>1.248297470078072</v>
       </c>
       <c r="N20">
-        <v>4.079799407660374</v>
+        <v>2.499622623774371</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.772406014364947</v>
+        <v>7.67458875957891</v>
       </c>
       <c r="C21">
-        <v>1.172049313579691</v>
+        <v>2.26121970511349</v>
       </c>
       <c r="D21">
-        <v>0.2906604987623922</v>
+        <v>0.1458447837887888</v>
       </c>
       <c r="E21">
-        <v>0.04255109556757386</v>
+        <v>0.02770024101712121</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.002712131655268118</v>
+        <v>0.0007991641921372749</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>4.029592394186409</v>
+        <v>3.291146724259178</v>
       </c>
       <c r="J21">
-        <v>0.04049816284921803</v>
+        <v>0.1469573883183273</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.7878313907137766</v>
+        <v>0.6124425509998161</v>
       </c>
       <c r="M21">
-        <v>1.226427894735863</v>
+        <v>1.402464069227605</v>
       </c>
       <c r="N21">
-        <v>4.082001653089378</v>
+        <v>2.527665399991463</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.87658488812292</v>
+        <v>8.278547091251994</v>
       </c>
       <c r="C22">
-        <v>1.208765796600858</v>
+        <v>2.45277306632363</v>
       </c>
       <c r="D22">
-        <v>0.2907808556189195</v>
+        <v>0.1514472482817268</v>
       </c>
       <c r="E22">
-        <v>0.04285454647309361</v>
+        <v>0.02889540257462286</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.002706784598590607</v>
+        <v>0.0007884439654012631</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>4.05469966607069</v>
+        <v>3.46198103565429</v>
       </c>
       <c r="J22">
-        <v>0.04346105465083383</v>
+        <v>0.1601310791112311</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.792548460172938</v>
+        <v>0.649931373920694</v>
       </c>
       <c r="M22">
-        <v>1.243545574490369</v>
+        <v>1.507735316293775</v>
       </c>
       <c r="N22">
-        <v>4.084211557517818</v>
+        <v>2.551066636578241</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.820712738645113</v>
+        <v>7.953669609273277</v>
       </c>
       <c r="C23">
-        <v>1.189110632838322</v>
+        <v>2.34969345867006</v>
       </c>
       <c r="D23">
-        <v>0.2907084592918352</v>
+        <v>0.1484241106791728</v>
       </c>
       <c r="E23">
-        <v>0.04269290380108171</v>
+        <v>0.02825217125718282</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.002709620143060388</v>
+        <v>0.0007941709849055404</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>4.041169075259987</v>
+        <v>3.369759115422568</v>
       </c>
       <c r="J23">
-        <v>0.04187878278575852</v>
+        <v>0.153046267658091</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.7900019918547088</v>
+        <v>0.6297354910057322</v>
       </c>
       <c r="M23">
-        <v>1.234355359595085</v>
+        <v>1.451091011712862</v>
       </c>
       <c r="N23">
-        <v>4.082961229876389</v>
+        <v>2.538069679284604</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.615013068712813</v>
+        <v>6.774414977808931</v>
       </c>
       <c r="C24">
-        <v>1.115953490895436</v>
+        <v>1.976274267183328</v>
       </c>
       <c r="D24">
-        <v>0.2906135027287391</v>
+        <v>0.1376518932665505</v>
       </c>
       <c r="E24">
-        <v>0.04207369465429966</v>
+        <v>0.02592167767665821</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.002720762135549433</v>
+        <v>0.0008157911201735639</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>3.992777896786265</v>
+        <v>3.041709041357265</v>
       </c>
       <c r="J24">
-        <v>0.0359055956092007</v>
+        <v>0.127288529917827</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.7809908432877535</v>
+        <v>0.5570544833102389</v>
       </c>
       <c r="M24">
-        <v>1.200735444959065</v>
+        <v>1.245844394986833</v>
       </c>
       <c r="N24">
-        <v>4.079776345248973</v>
+        <v>2.499241037313652</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>5.405611735589105</v>
+        <v>5.586838629705085</v>
       </c>
       <c r="C25">
-        <v>1.039721650326157</v>
+        <v>1.601125001543835</v>
       </c>
       <c r="D25">
-        <v>0.2908938780362078</v>
+        <v>0.1272157859292093</v>
       </c>
       <c r="E25">
-        <v>0.04139017977577542</v>
+        <v>0.02356858736209766</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.002733648912774312</v>
+        <v>0.0008392357777859125</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>3.946613077186583</v>
+        <v>2.723684311321463</v>
       </c>
       <c r="J25">
-        <v>0.02949893194779207</v>
+        <v>0.1012149508670177</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.7726158701137251</v>
+        <v>0.485078554017889</v>
       </c>
       <c r="M25">
-        <v>1.166981914426728</v>
+        <v>1.039856476159166</v>
       </c>
       <c r="N25">
-        <v>4.079614691953026</v>
+        <v>2.475426217902111</v>
       </c>
       <c r="O25">
         <v>0</v>
